--- a/USBank/Sprint0/sprint0PocPlan.xlsx
+++ b/USBank/Sprint0/sprint0PocPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KotlinTemplateWorks\USBank\Sprint0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D9FE9F-4099-44E6-922E-88E5083DFD8B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C92CB129-58C8-4C0A-A272-614A60F7D0E0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" tabRatio="572" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8310" tabRatio="572" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint0" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
   <si>
     <t>Code Structure</t>
   </si>
@@ -73,30 +73,6 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t>Transfer Screen</t>
-  </si>
-  <si>
-    <t>TransferTransactionModel</t>
-  </si>
-  <si>
-    <t>TransferTransactionViewModel</t>
-  </si>
-  <si>
-    <t>TransferTransactionActivity</t>
-  </si>
-  <si>
-    <t>ChooseFromaccount</t>
-  </si>
-  <si>
-    <t>UserSelfAccountModel</t>
-  </si>
-  <si>
-    <t>UserSelfAccountListScreen</t>
-  </si>
-  <si>
-    <t>UserSelfAccountViewModel</t>
-  </si>
-  <si>
     <t>TransferTransactionRulesValidator</t>
   </si>
   <si>
@@ -160,27 +136,9 @@
     <t xml:space="preserve">LoginViewModel           </t>
   </si>
   <si>
-    <t>TransferRepository</t>
-  </si>
-  <si>
-    <t>UserSelfAccountListAdapter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        UserSelfAccountListAdapter</t>
-  </si>
-  <si>
-    <t>UserSelfAccountRepository</t>
-  </si>
-  <si>
-    <t>ChooseToaccount</t>
-  </si>
-  <si>
     <t>RecipientModel</t>
   </si>
   <si>
-    <t>RecipientListScreen</t>
-  </si>
-  <si>
     <t>RecipientListAdapter</t>
   </si>
   <si>
@@ -188,9 +146,6 @@
   </si>
   <si>
     <t>RecipientRepository</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                RecipientListAdapter</t>
   </si>
   <si>
     <t xml:space="preserve">Common Modules  </t>
@@ -256,22 +211,7 @@
     <t>Task List</t>
   </si>
   <si>
-    <t>Abhijeet</t>
-  </si>
-  <si>
     <t>SNO</t>
-  </si>
-  <si>
-    <t>Rama Mohan /Ravindra</t>
-  </si>
-  <si>
-    <t>Move Money:
-      Transfer Screen
-      Choose From Account
-      Choose To Account</t>
-  </si>
-  <si>
-    <t>Sateesh/Abhijeet</t>
   </si>
   <si>
     <t>Network Module:
@@ -280,9 +220,6 @@
   </si>
   <si>
     <t>Login Screen</t>
-  </si>
-  <si>
-    <t>Sathya/RajaSekhar</t>
   </si>
   <si>
     <t>Developer</t>
@@ -322,6 +259,101 @@
  Ravindra
  Raja Sekhar</t>
     </r>
+  </si>
+  <si>
+    <t>SendMoney</t>
+  </si>
+  <si>
+    <t>Request Money</t>
+  </si>
+  <si>
+    <t>QuickActionComponent</t>
+  </si>
+  <si>
+    <t>TransferMoney</t>
+  </si>
+  <si>
+    <t>RequestMoney</t>
+  </si>
+  <si>
+    <t>TransferMoneyModel</t>
+  </si>
+  <si>
+    <t>TransferMoneyListScreen</t>
+  </si>
+  <si>
+    <t>TransferMoneyListAdapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        TransferMoneyListAdapter</t>
+  </si>
+  <si>
+    <t>TransferMoneyViewModel</t>
+  </si>
+  <si>
+    <t>TransferMoneyRepository</t>
+  </si>
+  <si>
+    <t>RequestMoneyModel</t>
+  </si>
+  <si>
+    <t>RequestMoneyListScreen</t>
+  </si>
+  <si>
+    <t>RequestMoneyListAdapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    RequestMoneyListAdapter</t>
+  </si>
+  <si>
+    <t>RequestMoneyViewModel</t>
+  </si>
+  <si>
+    <t>RequestMoneyRepository</t>
+  </si>
+  <si>
+    <t>RecipientListScreenFragment</t>
+  </si>
+  <si>
+    <t>Move Money:
+      SendMoney:
+             Recipient List</t>
+  </si>
+  <si>
+    <t>Ravindra</t>
+  </si>
+  <si>
+    <t>Login Test cases Junit/UI</t>
+  </si>
+  <si>
+    <t>DashBoard Test Cases Junit/UI</t>
+  </si>
+  <si>
+    <t>Send Money Test Cases Junit/UI</t>
+  </si>
+  <si>
+    <t>Request Money Test Cases Junit/UI</t>
+  </si>
+  <si>
+    <t>Rama Mohan(Java) /Ravindra(kt)</t>
+  </si>
+  <si>
+    <t>Sathya(Java)/RajaSekhar(kt)</t>
+  </si>
+  <si>
+    <t>Rama Mohan (Java)/Ravindra(kt)</t>
+  </si>
+  <si>
+    <t>Sateesh(Java)/Abhijeet(kt)</t>
+  </si>
+  <si>
+    <t>RamaMohan(Java)/Ravindra(kt)</t>
+  </si>
+  <si>
+    <t>Sathya(Java)/Ravindra(kt)</t>
+  </si>
+  <si>
+    <t>Sateesh((Java)/Abhijeet(kt)</t>
   </si>
 </sst>
 </file>
@@ -468,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -478,12 +510,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -496,96 +522,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -598,10 +549,114 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -900,157 +955,157 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0249AC-DE6C-4A3A-B32A-46FC7845E149}">
-  <dimension ref="B1:R51"/>
+  <dimension ref="B1:R52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36:R36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="K2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="23"/>
+      <c r="B2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="K2" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="26"/>
-      <c r="K3" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="26"/>
+      <c r="B3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="40"/>
+      <c r="K3" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="40"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="30"/>
-      <c r="K4" s="28" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+      <c r="K4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="30"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="44"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
       <c r="H5" s="4"/>
       <c r="I5" s="5"/>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="32" t="s">
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="38"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="52"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
       <c r="H6" s="4"/>
       <c r="I6" s="5"/>
-      <c r="K6" s="35" t="s">
+      <c r="K6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="L6" s="27"/>
-      <c r="M6" s="11" t="s">
-        <v>36</v>
+      <c r="L6" s="41"/>
+      <c r="M6" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="5"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
       <c r="H7" s="4"/>
       <c r="I7" s="5"/>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
       <c r="P7" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
@@ -1060,12 +1115,12 @@
         <v>3</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
+      <c r="D8" s="41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
       <c r="H8" s="4"/>
       <c r="I8" s="5"/>
       <c r="K8" s="3" t="s">
@@ -1073,27 +1128,27 @@
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="39"/>
+      <c r="P8" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="53"/>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="D9" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
       <c r="K9" s="3" t="s">
@@ -1101,12 +1156,12 @@
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
@@ -1129,45 +1184,45 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="2:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13"/>
-      <c r="K11" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="34"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="13"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="K11" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="11"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
       <c r="H12" s="4"/>
       <c r="I12" s="5"/>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="11"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -1176,55 +1231,55 @@
       <c r="R12" s="5"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
       <c r="H13" s="4"/>
       <c r="I13" s="5"/>
       <c r="K13" s="3"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="32" t="s">
+      <c r="M13" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32" t="s">
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="38"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="52"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
+      <c r="D14" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
-      <c r="K14" s="35" t="s">
+      <c r="K14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="L14" s="27"/>
+      <c r="L14" s="41"/>
       <c r="M14" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="5"/>
@@ -1234,25 +1289,25 @@
         <v>4</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
+      <c r="D15" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
-      <c r="K15" s="35" t="s">
+      <c r="K15" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="27"/>
+      <c r="L15" s="41"/>
       <c r="M15" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
       <c r="P15" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="5"/>
@@ -1269,21 +1324,21 @@
       <c r="K16" s="3"/>
       <c r="L16" s="4"/>
       <c r="M16" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="5"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="4" t="s">
         <v>10</v>
       </c>
@@ -1292,17 +1347,17 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="5"/>
-      <c r="K17" s="35" t="s">
+      <c r="K17" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="27"/>
+      <c r="L17" s="41"/>
       <c r="M17" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="5"/>
@@ -1316,17 +1371,17 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="5"/>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="27"/>
+      <c r="L18" s="41"/>
       <c r="M18" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
       <c r="P18" s="4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="5"/>
@@ -1362,14 +1417,14 @@
         <v>5</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="25" t="s">
+      <c r="M20" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N20" s="25"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="26"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="40"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="3"/>
@@ -1384,14 +1439,14 @@
         <v>6</v>
       </c>
       <c r="L21" s="4"/>
-      <c r="M21" s="25" t="s">
+      <c r="M21" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="26"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="40"/>
     </row>
     <row r="22" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="6"/>
@@ -1413,38 +1468,38 @@
     </row>
     <row r="24" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="B25" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
-      <c r="M25" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="23"/>
+      <c r="M25" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="37"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="B26" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="4"/>
       <c r="K26" s="5"/>
       <c r="M26" s="3"/>
@@ -1455,41 +1510,41 @@
       <c r="R26" s="5"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
       <c r="J27" s="4"/>
       <c r="K27" s="5"/>
-      <c r="M27" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
+      <c r="M27" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="5"/>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="B28" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
       <c r="J28" s="4"/>
       <c r="K28" s="5"/>
-      <c r="M28" s="16" t="s">
+      <c r="M28" s="14" t="s">
         <v>7</v>
       </c>
       <c r="N28" s="4"/>
@@ -1499,99 +1554,95 @@
       <c r="R28" s="5"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="32" t="s">
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
       <c r="J29" s="4"/>
       <c r="K29" s="5"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="O29" s="27"/>
+      <c r="N29" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="41"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="5"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="26"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="40"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="O30" s="27"/>
+      <c r="N30" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="O30" s="41"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="5"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="26"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="40"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O31" s="27"/>
+      <c r="N31" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="O31" s="41"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="5"/>
     </row>
     <row r="32" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="B32" s="3"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="41"/>
-      <c r="M32" s="16" t="s">
+      <c r="D32" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="55"/>
+      <c r="M32" s="14" t="s">
         <v>8</v>
       </c>
       <c r="N32" s="4"/>
@@ -1602,21 +1653,21 @@
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="D33" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
       <c r="G33" s="4"/>
-      <c r="H33" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="39"/>
+      <c r="H33" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="40"/>
       <c r="M33" s="3"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -1625,377 +1676,419 @@
       <c r="R33" s="5"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
+      <c r="B34" s="3" t="s">
+        <v>3</v>
+      </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="D34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
       <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
+      <c r="H34" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
       <c r="K34" s="5"/>
-      <c r="M34" s="31" t="s">
+      <c r="M34" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="32"/>
-      <c r="R34" s="38"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="46"/>
+      <c r="P34" s="46"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="52"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="4"/>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
       <c r="K35" s="5"/>
-      <c r="M35" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="N35" s="27"/>
-      <c r="O35" s="27"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="27"/>
-      <c r="R35" s="39"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="18"/>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="32"/>
-      <c r="I36" s="32"/>
+      <c r="B36" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
       <c r="J36" s="4"/>
       <c r="K36" s="5"/>
-      <c r="M36" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="27"/>
-      <c r="Q36" s="27"/>
-      <c r="R36" s="39"/>
+      <c r="M36" s="49" t="s">
+        <v>45</v>
+      </c>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="53"/>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="46"/>
+      <c r="I37" s="46"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="M37" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="53"/>
+    </row>
+    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B38" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="27"/>
-      <c r="D37" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="25"/>
-      <c r="K37" s="26"/>
-      <c r="M37" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="27"/>
-      <c r="R37" s="39"/>
-    </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="35" t="s">
+      <c r="C38" s="41"/>
+      <c r="D38" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="40"/>
+      <c r="M38" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="53"/>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B39" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="26"/>
-      <c r="M38" s="35" t="s">
+      <c r="C39" s="41"/>
+      <c r="D39" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="40"/>
+      <c r="M39" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="27"/>
-      <c r="O38" s="27"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="27"/>
-      <c r="R38" s="39"/>
-    </row>
-    <row r="39" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="39"/>
-      <c r="M39" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="44"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="53"/>
+    </row>
+    <row r="40" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="27"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="28"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="53"/>
+      <c r="M40" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="58"/>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="55"/>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="41"/>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
       <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>70</v>
+      </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="5"/>
+      <c r="G42" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="55"/>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="5"/>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
+      <c r="B44" s="47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="48"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
       <c r="J44" s="4"/>
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="46"/>
+      <c r="I45" s="46"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B46" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="26"/>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="35" t="s">
+      <c r="C46" s="41"/>
+      <c r="D46" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="40"/>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B47" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="26"/>
-      <c r="M46" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="27"/>
-      <c r="K47" s="39"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="40"/>
+      <c r="M47" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="27"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="53"/>
+    </row>
+    <row r="49" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="41"/>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="4"/>
+      <c r="D49" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="55"/>
+    </row>
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="41"/>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
       <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>76</v>
+      </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="5"/>
-    </row>
-    <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="8"/>
+      <c r="G50" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="55"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="5"/>
+    </row>
+    <row r="52" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="6"/>
+      <c r="C52" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="58"/>
+      <c r="K52" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
+  <mergeCells count="95">
+    <mergeCell ref="E51:J51"/>
+    <mergeCell ref="E52:J52"/>
     <mergeCell ref="M34:R34"/>
-    <mergeCell ref="M35:R35"/>
     <mergeCell ref="M36:R36"/>
     <mergeCell ref="M37:R37"/>
     <mergeCell ref="M38:R38"/>
     <mergeCell ref="M39:R39"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="M40:R40"/>
+    <mergeCell ref="D49:F49"/>
     <mergeCell ref="G49:K49"/>
+    <mergeCell ref="G50:K50"/>
     <mergeCell ref="M25:R25"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="N30:O30"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="N31:O31"/>
+    <mergeCell ref="G48:K48"/>
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="G41:K41"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
     <mergeCell ref="G47:K47"/>
-    <mergeCell ref="G41:K41"/>
-    <mergeCell ref="B43:I43"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D46:F46"/>
     <mergeCell ref="G40:K40"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="G45:K45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="G46:K46"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="G38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
     <mergeCell ref="G39:K39"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:K37"/>
-    <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:K38"/>
-    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="B36:I36"/>
     <mergeCell ref="D32:F32"/>
     <mergeCell ref="G30:K30"/>
     <mergeCell ref="G31:K31"/>
@@ -2004,6 +2097,12 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H35:J35"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="M20:R20"/>
     <mergeCell ref="M21:R21"/>
@@ -2054,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{163636CA-F05C-4FEB-9687-3A736D969D6F}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,190 +2166,267 @@
     <col min="4" max="4" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="52" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="56"/>
+    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="19">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+        <v>49</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="45">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58"/>
+        <v>79</v>
+      </c>
+      <c r="E3" s="64"/>
+      <c r="F3" s="65"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58"/>
+      <c r="B4" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="64"/>
+      <c r="F4" s="65"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="47"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="47"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45">
+      <c r="A7" s="19">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="45">
+      <c r="A8" s="19">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="56"/>
+        <v>86</v>
+      </c>
+      <c r="E8" s="62" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="63"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45">
+      <c r="A9" s="19">
         <v>6</v>
       </c>
-      <c r="B9" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="B9" s="59" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="65"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="61"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="65"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="61"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="65"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="61"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="67"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <v>7</v>
       </c>
-      <c r="B13" s="46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>73</v>
-      </c>
+      <c r="B13" s="30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="47"/>
+      <c r="A14" s="17">
+        <v>8</v>
+      </c>
+      <c r="B14" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="47"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="20"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>73</v>
+        <v>9</v>
+      </c>
+      <c r="B16" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="61" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="45">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="49">
+      <c r="A17" s="17"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>76</v>
+      <c r="B19" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>11</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>12</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>13</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>14</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22">
+        <v>16</v>
+      </c>
+      <c r="B25" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="E1:F5"/>
     <mergeCell ref="E8:F12"/>
     <mergeCell ref="B4:B6"/>
